--- a/Instructors_Metadata.xlsx
+++ b/Instructors_Metadata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wzx/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wzx/Downloads/BASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F04AA2-5422-9248-9A93-7102FD081837}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E8E233-7928-AC4F-9D31-5CA0686E5F1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-760" yWindow="500" windowWidth="15500" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="173">
   <si>
     <t>Filename</t>
   </si>
@@ -957,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N161"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="84" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3954,6 +3955,7187 @@
         <v>72</v>
       </c>
       <c r="C67" s="2" t="str">
+        <f t="shared" ref="C67:C128" si="1">LEFT(B67, 2)</f>
+        <v>ls</v>
+      </c>
+      <c r="D67" s="2">
+        <v>8015</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>3</v>
+      </c>
+      <c r="I67" s="2">
+        <v>2</v>
+      </c>
+      <c r="J67" s="2">
+        <v>913</v>
+      </c>
+      <c r="K67" s="2">
+        <v>486.4</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ls</v>
+      </c>
+      <c r="D68" s="2">
+        <v>4976</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2">
+        <v>530</v>
+      </c>
+      <c r="K68" s="2">
+        <v>293.80000000000041</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ls</v>
+      </c>
+      <c r="D69" s="2">
+        <v>5985</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>89</v>
+      </c>
+      <c r="I69" s="2">
+        <v>88</v>
+      </c>
+      <c r="J69" s="2">
+        <v>704</v>
+      </c>
+      <c r="K69" s="2">
+        <v>456.39999999999918</v>
+      </c>
+      <c r="L69" s="2">
+        <v>53</v>
+      </c>
+      <c r="M69" s="2">
+        <v>26.499999999999989</v>
+      </c>
+      <c r="N69" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ls</v>
+      </c>
+      <c r="D70" s="2">
+        <v>8959</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>3</v>
+      </c>
+      <c r="I70" s="2">
+        <v>2</v>
+      </c>
+      <c r="J70" s="2">
+        <v>970</v>
+      </c>
+      <c r="K70" s="2">
+        <v>561.89999999999839</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="N70" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ls</v>
+      </c>
+      <c r="D71" s="2">
+        <v>8169</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>7</v>
+      </c>
+      <c r="I71" s="2">
+        <v>6</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1423</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1220.700000000001</v>
+      </c>
+      <c r="L71" s="2">
+        <v>3</v>
+      </c>
+      <c r="M71" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="N71" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ls</v>
+      </c>
+      <c r="D72" s="2">
+        <v>8050</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>49</v>
+      </c>
+      <c r="I72" s="2">
+        <v>48</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1305</v>
+      </c>
+      <c r="K72" s="2">
+        <v>830.69999999999959</v>
+      </c>
+      <c r="L72" s="2">
+        <v>21</v>
+      </c>
+      <c r="M72" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="N72" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ls</v>
+      </c>
+      <c r="D73" s="2">
+        <v>9400</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>110</v>
+      </c>
+      <c r="I73" s="2">
+        <v>109</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1224</v>
+      </c>
+      <c r="K73" s="2">
+        <v>612.19999999999641</v>
+      </c>
+      <c r="L73" s="2">
+        <v>49</v>
+      </c>
+      <c r="M73" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="N73" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ls</v>
+      </c>
+      <c r="D74" s="2">
+        <v>14540</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>107</v>
+      </c>
+      <c r="I74" s="2">
+        <v>106</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1834</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1064.4999999999991</v>
+      </c>
+      <c r="L74" s="2">
+        <v>55</v>
+      </c>
+      <c r="M74" s="2">
+        <v>34.400000000000013</v>
+      </c>
+      <c r="N74" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ls</v>
+      </c>
+      <c r="D75" s="2">
+        <v>8252</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>58</v>
+      </c>
+      <c r="I75" s="2">
+        <v>57</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1210</v>
+      </c>
+      <c r="K75" s="2">
+        <v>677.39999999999804</v>
+      </c>
+      <c r="L75" s="2">
+        <v>33</v>
+      </c>
+      <c r="M75" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="N75" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>77</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ls</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5456</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>19</v>
+      </c>
+      <c r="I76" s="2">
+        <v>18</v>
+      </c>
+      <c r="J76" s="2">
+        <v>795</v>
+      </c>
+      <c r="K76" s="2">
+        <v>958.79999999999882</v>
+      </c>
+      <c r="L76" s="2">
+        <v>11</v>
+      </c>
+      <c r="M76" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="N76" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>78</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ls</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3958</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>21</v>
+      </c>
+      <c r="I77" s="2">
+        <v>20</v>
+      </c>
+      <c r="J77" s="2">
+        <v>719</v>
+      </c>
+      <c r="K77" s="2">
+        <v>759</v>
+      </c>
+      <c r="L77" s="2">
+        <v>6</v>
+      </c>
+      <c r="M77" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="N77" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ls</v>
+      </c>
+      <c r="D78" s="2">
+        <v>11190</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1380</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1245.969999999998</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0</v>
+      </c>
+      <c r="M78" s="2">
+        <v>0</v>
+      </c>
+      <c r="N78" s="2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>80</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ls</v>
+      </c>
+      <c r="D79" s="2">
+        <v>8655</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>11</v>
+      </c>
+      <c r="I79" s="2">
+        <v>10</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1721</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1203.5000000000009</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0</v>
+      </c>
+      <c r="M79" s="2">
+        <v>0</v>
+      </c>
+      <c r="N79" s="2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>81</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D80" s="2">
+        <v>13213</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>8</v>
+      </c>
+      <c r="I80" s="2">
+        <v>7</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1929</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1339.6999999999989</v>
+      </c>
+      <c r="L80" s="2">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="N80" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>82</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D81" s="2">
+        <v>14589</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>28</v>
+      </c>
+      <c r="I81" s="2">
+        <v>27</v>
+      </c>
+      <c r="J81" s="2">
+        <v>2095</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1713.7000000000039</v>
+      </c>
+      <c r="L81" s="2">
+        <v>8</v>
+      </c>
+      <c r="M81" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="N81" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>83</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D82" s="2">
+        <v>12314</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>202</v>
+      </c>
+      <c r="I82" s="2">
+        <v>201</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1918</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1461.380000000004</v>
+      </c>
+      <c r="L82" s="2">
+        <v>90</v>
+      </c>
+      <c r="M82" s="2">
+        <v>290.00000000000011</v>
+      </c>
+      <c r="N82" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D83" s="2">
+        <v>8066</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>14</v>
+      </c>
+      <c r="I83" s="2">
+        <v>13</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1430</v>
+      </c>
+      <c r="K83" s="2">
+        <v>622.69999999999789</v>
+      </c>
+      <c r="L83" s="2">
+        <v>1</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N83" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>85</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D84" s="2">
+        <v>13171</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>58</v>
+      </c>
+      <c r="I84" s="2">
+        <v>57</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1536</v>
+      </c>
+      <c r="K84" s="2">
+        <v>845.39999999999804</v>
+      </c>
+      <c r="L84" s="2">
+        <v>28</v>
+      </c>
+      <c r="M84" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="N84" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>86</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D85" s="2">
+        <v>12311</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>16</v>
+      </c>
+      <c r="I85" s="2">
+        <v>15</v>
+      </c>
+      <c r="J85" s="2">
+        <v>2006</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1063.000000000002</v>
+      </c>
+      <c r="L85" s="2">
+        <v>7</v>
+      </c>
+      <c r="M85" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="N85" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>87</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D86" s="2">
+        <v>9160</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>62</v>
+      </c>
+      <c r="I86" s="2">
+        <v>61</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1355</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1301.000000000002</v>
+      </c>
+      <c r="L86" s="2">
+        <v>33</v>
+      </c>
+      <c r="M86" s="2">
+        <v>26.999999999999989</v>
+      </c>
+      <c r="N86" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>88</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D87" s="2">
+        <v>12836</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>12</v>
+      </c>
+      <c r="I87" s="2">
+        <v>11</v>
+      </c>
+      <c r="J87" s="2">
+        <v>2341</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1357.4</v>
+      </c>
+      <c r="L87" s="2">
+        <v>7</v>
+      </c>
+      <c r="M87" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="N87" s="2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>89</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D88" s="2">
+        <v>13846</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>127</v>
+      </c>
+      <c r="I88" s="2">
+        <v>126</v>
+      </c>
+      <c r="J88" s="2">
+        <v>2530</v>
+      </c>
+      <c r="K88" s="2">
+        <v>1721.1000000000049</v>
+      </c>
+      <c r="L88" s="2">
+        <v>50</v>
+      </c>
+      <c r="M88" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="N88" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>90</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D89" s="2">
+        <v>7935</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>4</v>
+      </c>
+      <c r="I89" s="2">
+        <v>3</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1301</v>
+      </c>
+      <c r="K89" s="2">
+        <v>873.49999999999898</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>91</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D90" s="2">
+        <v>15151</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>10</v>
+      </c>
+      <c r="I90" s="2">
+        <v>9</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1823</v>
+      </c>
+      <c r="K90" s="2">
+        <v>1277.0999999999999</v>
+      </c>
+      <c r="L90" s="2">
+        <v>5</v>
+      </c>
+      <c r="M90" s="2">
+        <v>3</v>
+      </c>
+      <c r="N90" s="2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>92</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D91" s="2">
+        <v>10760</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>7</v>
+      </c>
+      <c r="I91" s="2">
+        <v>6</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1786</v>
+      </c>
+      <c r="K91" s="2">
+        <v>1458.4000000000069</v>
+      </c>
+      <c r="L91" s="2">
+        <v>2</v>
+      </c>
+      <c r="M91" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="N91" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>93</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D92" s="2">
+        <v>4326</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>2</v>
+      </c>
+      <c r="I92" s="2">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2">
+        <v>808</v>
+      </c>
+      <c r="K92" s="2">
+        <v>693.89999999999873</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>94</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D93" s="2">
+        <v>6963</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>10</v>
+      </c>
+      <c r="I93" s="2">
+        <v>9</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1219</v>
+      </c>
+      <c r="K93" s="2">
+        <v>972.50000000000102</v>
+      </c>
+      <c r="L93" s="2">
+        <v>4</v>
+      </c>
+      <c r="M93" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="N93" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>95</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D94" s="2">
+        <v>5634</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>3</v>
+      </c>
+      <c r="I94" s="2">
+        <v>2</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1026</v>
+      </c>
+      <c r="K94" s="2">
+        <v>760.3999999999993</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>96</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D95" s="2">
+        <v>5632</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>18</v>
+      </c>
+      <c r="I95" s="2">
+        <v>17</v>
+      </c>
+      <c r="J95" s="2">
+        <v>1229</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1188.7000000000021</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0</v>
+      </c>
+      <c r="M95" s="2">
+        <v>0</v>
+      </c>
+      <c r="N95" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>97</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D96" s="2">
+        <v>8458</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1060</v>
+      </c>
+      <c r="K96" s="2">
+        <v>537.91999999999814</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0</v>
+      </c>
+      <c r="N96" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D97" s="2">
+        <v>5596</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>1</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1194</v>
+      </c>
+      <c r="K97" s="2">
+        <v>891.699999999998</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0</v>
+      </c>
+      <c r="N97" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>99</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D98" s="2">
+        <v>6429</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>10</v>
+      </c>
+      <c r="I98" s="2">
+        <v>9</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1236</v>
+      </c>
+      <c r="K98" s="2">
+        <v>859.19999999999925</v>
+      </c>
+      <c r="L98" s="2">
+        <v>5</v>
+      </c>
+      <c r="M98" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="N98" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>100</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D99" s="2">
+        <v>7413</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2">
+        <v>4</v>
+      </c>
+      <c r="I99" s="2">
+        <v>3</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1354</v>
+      </c>
+      <c r="K99" s="2">
+        <v>957.19999999999982</v>
+      </c>
+      <c r="L99" s="2">
+        <v>1</v>
+      </c>
+      <c r="M99" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N99" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>101</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D100" s="2">
+        <v>7469</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
+        <v>1</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2">
+        <v>582</v>
+      </c>
+      <c r="K100" s="2">
+        <v>258.70000000000039</v>
+      </c>
+      <c r="L100" s="2">
+        <v>0</v>
+      </c>
+      <c r="M100" s="2">
+        <v>0</v>
+      </c>
+      <c r="N100" s="2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>102</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D101" s="2">
+        <v>5080</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>1</v>
+      </c>
+      <c r="I101" s="2">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2">
+        <v>1116</v>
+      </c>
+      <c r="K101" s="2">
+        <v>1479.800000000004</v>
+      </c>
+      <c r="L101" s="2">
+        <v>0</v>
+      </c>
+      <c r="M101" s="2">
+        <v>0</v>
+      </c>
+      <c r="N101" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>103</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D102" s="2">
+        <v>8619</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
+        <v>1</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>4</v>
+      </c>
+      <c r="I102" s="2">
+        <v>3</v>
+      </c>
+      <c r="J102" s="2">
+        <v>1396</v>
+      </c>
+      <c r="K102" s="2">
+        <v>815.19999999999823</v>
+      </c>
+      <c r="L102" s="2">
+        <v>0</v>
+      </c>
+      <c r="M102" s="2">
+        <v>0</v>
+      </c>
+      <c r="N102" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>104</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D103" s="2">
+        <v>9374</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2">
+        <v>28</v>
+      </c>
+      <c r="I103" s="2">
+        <v>27</v>
+      </c>
+      <c r="J103" s="2">
+        <v>1610</v>
+      </c>
+      <c r="K103" s="2">
+        <v>786.19999999999379</v>
+      </c>
+      <c r="L103" s="2">
+        <v>6</v>
+      </c>
+      <c r="M103" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="N103" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>105</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D104" s="2">
+        <v>7141</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>69</v>
+      </c>
+      <c r="I104" s="2">
+        <v>68</v>
+      </c>
+      <c r="J104" s="2">
+        <v>1123</v>
+      </c>
+      <c r="K104" s="2">
+        <v>800.4999999999975</v>
+      </c>
+      <c r="L104" s="2">
+        <v>34</v>
+      </c>
+      <c r="M104" s="2">
+        <v>19</v>
+      </c>
+      <c r="N104" s="2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>106</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D105" s="2">
+        <v>7096</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+      <c r="F105" s="2">
+        <v>1</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>38</v>
+      </c>
+      <c r="I105" s="2">
+        <v>37</v>
+      </c>
+      <c r="J105" s="2">
+        <v>962</v>
+      </c>
+      <c r="K105" s="2">
+        <v>593.69999999999891</v>
+      </c>
+      <c r="L105" s="2">
+        <v>11</v>
+      </c>
+      <c r="M105" s="2">
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="N105" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>107</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D106" s="2">
+        <v>8868</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+      <c r="F106" s="2">
+        <v>1</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <v>1</v>
+      </c>
+      <c r="I106" s="2">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2">
+        <v>1316</v>
+      </c>
+      <c r="K106" s="2">
+        <v>786.99999999999795</v>
+      </c>
+      <c r="L106" s="2">
+        <v>0</v>
+      </c>
+      <c r="M106" s="2">
+        <v>0</v>
+      </c>
+      <c r="N106" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>108</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D107" s="2">
+        <v>6403</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2">
+        <v>11</v>
+      </c>
+      <c r="I107" s="2">
+        <v>10</v>
+      </c>
+      <c r="J107" s="2">
+        <v>1238</v>
+      </c>
+      <c r="K107" s="2">
+        <v>1118</v>
+      </c>
+      <c r="L107" s="2">
+        <v>9</v>
+      </c>
+      <c r="M107" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="N107" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>109</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D108" s="2">
+        <v>9924</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2">
+        <v>18</v>
+      </c>
+      <c r="I108" s="2">
+        <v>17</v>
+      </c>
+      <c r="J108" s="2">
+        <v>1448</v>
+      </c>
+      <c r="K108" s="2">
+        <v>725.599999999999</v>
+      </c>
+      <c r="L108" s="2">
+        <v>7</v>
+      </c>
+      <c r="M108" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="N108" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D109" s="2">
+        <v>7384</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2">
+        <v>1</v>
+      </c>
+      <c r="I109" s="2">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2">
+        <v>1299</v>
+      </c>
+      <c r="K109" s="2">
+        <v>766.39999999999804</v>
+      </c>
+      <c r="L109" s="2">
+        <v>0</v>
+      </c>
+      <c r="M109" s="2">
+        <v>0</v>
+      </c>
+      <c r="N109" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>111</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D110" s="2">
+        <v>7990</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>3</v>
+      </c>
+      <c r="I110" s="2">
+        <v>2</v>
+      </c>
+      <c r="J110" s="2">
+        <v>1830</v>
+      </c>
+      <c r="K110" s="2">
+        <v>969.19999999999675</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0</v>
+      </c>
+      <c r="M110" s="2">
+        <v>0</v>
+      </c>
+      <c r="N110" s="2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>112</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D111" s="2">
+        <v>12928</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2">
+        <v>93</v>
+      </c>
+      <c r="I111" s="2">
+        <v>92</v>
+      </c>
+      <c r="J111" s="2">
+        <v>2141</v>
+      </c>
+      <c r="K111" s="2">
+        <v>1251.199999999998</v>
+      </c>
+      <c r="L111" s="2">
+        <v>50</v>
+      </c>
+      <c r="M111" s="2">
+        <v>33.499999999999993</v>
+      </c>
+      <c r="N111" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>113</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D112" s="2">
+        <v>8500</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <v>26</v>
+      </c>
+      <c r="I112" s="2">
+        <v>25</v>
+      </c>
+      <c r="J112" s="2">
+        <v>833</v>
+      </c>
+      <c r="K112" s="2">
+        <v>649.29999999999893</v>
+      </c>
+      <c r="L112" s="2">
+        <v>16</v>
+      </c>
+      <c r="M112" s="2">
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="N112" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>114</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D113" s="2">
+        <v>9904</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2">
+        <v>17</v>
+      </c>
+      <c r="I113" s="2">
+        <v>16</v>
+      </c>
+      <c r="J113" s="2">
+        <v>1213</v>
+      </c>
+      <c r="K113" s="2">
+        <v>921.09999999999752</v>
+      </c>
+      <c r="L113" s="2">
+        <v>9</v>
+      </c>
+      <c r="M113" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="N113" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>115</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D114" s="2">
+        <v>2846</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>8</v>
+      </c>
+      <c r="I114" s="2">
+        <v>7</v>
+      </c>
+      <c r="J114" s="2">
+        <v>390</v>
+      </c>
+      <c r="K114" s="2">
+        <v>285.40000000000009</v>
+      </c>
+      <c r="L114" s="2">
+        <v>3</v>
+      </c>
+      <c r="M114" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="N114" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>116</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D115" s="2">
+        <v>7058</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
+        <v>8</v>
+      </c>
+      <c r="I115" s="2">
+        <v>7</v>
+      </c>
+      <c r="J115" s="2">
+        <v>1341</v>
+      </c>
+      <c r="K115" s="2">
+        <v>986.30000000000007</v>
+      </c>
+      <c r="L115" s="2">
+        <v>1</v>
+      </c>
+      <c r="M115" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N115" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>117</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D116" s="2">
+        <v>7904</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2">
+        <v>18</v>
+      </c>
+      <c r="I116" s="2">
+        <v>17</v>
+      </c>
+      <c r="J116" s="2">
+        <v>902</v>
+      </c>
+      <c r="K116" s="2">
+        <v>507.39999999999918</v>
+      </c>
+      <c r="L116" s="2">
+        <v>11</v>
+      </c>
+      <c r="M116" s="2">
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="N116" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>118</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D117" s="2">
+        <v>7424</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2">
+        <v>49</v>
+      </c>
+      <c r="I117" s="2">
+        <v>48</v>
+      </c>
+      <c r="J117" s="2">
+        <v>1443</v>
+      </c>
+      <c r="K117" s="2">
+        <v>841.40000000000032</v>
+      </c>
+      <c r="L117" s="2">
+        <v>22</v>
+      </c>
+      <c r="M117" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="N117" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D118" s="2">
+        <v>7059</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <v>95</v>
+      </c>
+      <c r="I118" s="2">
+        <v>94</v>
+      </c>
+      <c r="J118" s="2">
+        <v>1051</v>
+      </c>
+      <c r="K118" s="2">
+        <v>512.59999999999911</v>
+      </c>
+      <c r="L118" s="2">
+        <v>33</v>
+      </c>
+      <c r="M118" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="N118" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>120</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ss</v>
+      </c>
+      <c r="D119" s="2">
+        <v>6557</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+      <c r="F119" s="2">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0</v>
+      </c>
+      <c r="H119" s="2">
+        <v>7</v>
+      </c>
+      <c r="I119" s="2">
+        <v>6</v>
+      </c>
+      <c r="J119" s="2">
+        <v>993</v>
+      </c>
+      <c r="K119" s="2">
+        <v>438.8</v>
+      </c>
+      <c r="L119" s="2">
+        <v>0</v>
+      </c>
+      <c r="M119" s="2">
+        <v>0</v>
+      </c>
+      <c r="N119" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>121</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ps</v>
+      </c>
+      <c r="D120" s="2">
+        <v>6739</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2">
+        <v>0</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0</v>
+      </c>
+      <c r="H120" s="2">
+        <v>31</v>
+      </c>
+      <c r="I120" s="2">
+        <v>30</v>
+      </c>
+      <c r="J120" s="2">
+        <v>1219</v>
+      </c>
+      <c r="K120" s="2">
+        <v>1639.500000000003</v>
+      </c>
+      <c r="L120" s="2">
+        <v>20</v>
+      </c>
+      <c r="M120" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="N120" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>122</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ps</v>
+      </c>
+      <c r="D121" s="2">
+        <v>13250</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2">
+        <v>0</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2">
+        <v>78</v>
+      </c>
+      <c r="I121" s="2">
+        <v>77</v>
+      </c>
+      <c r="J121" s="2">
+        <v>2165</v>
+      </c>
+      <c r="K121" s="2">
+        <v>1668.4000000000101</v>
+      </c>
+      <c r="L121" s="2">
+        <v>49</v>
+      </c>
+      <c r="M121" s="2">
+        <v>44.09999999999998</v>
+      </c>
+      <c r="N121" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>123</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ps</v>
+      </c>
+      <c r="D122" s="2">
+        <v>5624</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0</v>
+      </c>
+      <c r="H122" s="2">
+        <v>2</v>
+      </c>
+      <c r="I122" s="2">
+        <v>1</v>
+      </c>
+      <c r="J122" s="2">
+        <v>1009</v>
+      </c>
+      <c r="K122" s="2">
+        <v>941.59999999999968</v>
+      </c>
+      <c r="L122" s="2">
+        <v>1</v>
+      </c>
+      <c r="M122" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="N122" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>124</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ps</v>
+      </c>
+      <c r="D123" s="2">
+        <v>3824</v>
+      </c>
+      <c r="E123" s="2">
+        <v>1</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0</v>
+      </c>
+      <c r="H123" s="2">
+        <v>1</v>
+      </c>
+      <c r="I123" s="2">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2">
+        <v>872</v>
+      </c>
+      <c r="K123" s="2">
+        <v>1602.600000000002</v>
+      </c>
+      <c r="L123" s="2">
+        <v>0</v>
+      </c>
+      <c r="M123" s="2">
+        <v>0</v>
+      </c>
+      <c r="N123" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>125</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ps</v>
+      </c>
+      <c r="D124" s="2">
+        <v>7291</v>
+      </c>
+      <c r="E124" s="2">
+        <v>1</v>
+      </c>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
+        <v>1</v>
+      </c>
+      <c r="I124" s="2">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2">
+        <v>1356</v>
+      </c>
+      <c r="K124" s="2">
+        <v>888.99999999999739</v>
+      </c>
+      <c r="L124" s="2">
+        <v>0</v>
+      </c>
+      <c r="M124" s="2">
+        <v>0</v>
+      </c>
+      <c r="N124" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>126</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ps</v>
+      </c>
+      <c r="D125" s="2">
+        <v>9311</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2">
+        <v>4</v>
+      </c>
+      <c r="I125" s="2">
+        <v>3</v>
+      </c>
+      <c r="J125" s="2">
+        <v>1596</v>
+      </c>
+      <c r="K125" s="2">
+        <v>775.09999999999741</v>
+      </c>
+      <c r="L125" s="2">
+        <v>2</v>
+      </c>
+      <c r="M125" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N125" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>127</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ps</v>
+      </c>
+      <c r="D126" s="2">
+        <v>5001</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0</v>
+      </c>
+      <c r="H126" s="2">
+        <v>10</v>
+      </c>
+      <c r="I126" s="2">
+        <v>9</v>
+      </c>
+      <c r="J126" s="2">
+        <v>1290</v>
+      </c>
+      <c r="K126" s="2">
+        <v>1401.3000000000011</v>
+      </c>
+      <c r="L126" s="2">
+        <v>7</v>
+      </c>
+      <c r="M126" s="2">
+        <v>93.4</v>
+      </c>
+      <c r="N126" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>128</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ps</v>
+      </c>
+      <c r="D127" s="2">
+        <v>6380</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0</v>
+      </c>
+      <c r="F127" s="2">
+        <v>1</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0</v>
+      </c>
+      <c r="H127" s="2">
+        <v>16</v>
+      </c>
+      <c r="I127" s="2">
+        <v>15</v>
+      </c>
+      <c r="J127" s="2">
+        <v>1047</v>
+      </c>
+      <c r="K127" s="2">
+        <v>965.00000000000148</v>
+      </c>
+      <c r="L127" s="2">
+        <v>10</v>
+      </c>
+      <c r="M127" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="N127" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>129</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ps</v>
+      </c>
+      <c r="D128" s="2">
+        <v>4065</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
+      <c r="F128" s="2">
+        <v>0</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0</v>
+      </c>
+      <c r="H128" s="2">
+        <v>5</v>
+      </c>
+      <c r="I128" s="2">
+        <v>4</v>
+      </c>
+      <c r="J128" s="2">
+        <v>1009</v>
+      </c>
+      <c r="K128" s="2">
+        <v>1080.7</v>
+      </c>
+      <c r="L128" s="2">
+        <v>2</v>
+      </c>
+      <c r="M128" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="N128" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>130</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" s="2" t="str">
+        <f t="shared" ref="C129:C159" si="2">LEFT(B129, 2)</f>
+        <v>ps</v>
+      </c>
+      <c r="D129" s="2">
+        <v>7074</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1</v>
+      </c>
+      <c r="F129" s="2">
+        <v>0</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0</v>
+      </c>
+      <c r="H129" s="2">
+        <v>15</v>
+      </c>
+      <c r="I129" s="2">
+        <v>14</v>
+      </c>
+      <c r="J129" s="2">
+        <v>1265</v>
+      </c>
+      <c r="K129" s="2">
+        <v>1492.0000000000009</v>
+      </c>
+      <c r="L129" s="2">
+        <v>8</v>
+      </c>
+      <c r="M129" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="N129" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>131</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D130" s="2">
+        <v>7658</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0</v>
+      </c>
+      <c r="H130" s="2">
+        <v>32</v>
+      </c>
+      <c r="I130" s="2">
+        <v>31</v>
+      </c>
+      <c r="J130" s="2">
+        <v>1214</v>
+      </c>
+      <c r="K130" s="2">
+        <v>747.19999999999789</v>
+      </c>
+      <c r="L130" s="2">
+        <v>22</v>
+      </c>
+      <c r="M130" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N130" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>132</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D131" s="2">
+        <v>6657</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2">
+        <v>5</v>
+      </c>
+      <c r="I131" s="2">
+        <v>4</v>
+      </c>
+      <c r="J131" s="2">
+        <v>917</v>
+      </c>
+      <c r="K131" s="2">
+        <v>707.60000000000014</v>
+      </c>
+      <c r="L131" s="2">
+        <v>2</v>
+      </c>
+      <c r="M131" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="N131" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>133</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D132" s="2">
+        <v>11980</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1</v>
+      </c>
+      <c r="F132" s="2">
+        <v>0</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+      <c r="H132" s="2">
+        <v>12</v>
+      </c>
+      <c r="I132" s="2">
+        <v>11</v>
+      </c>
+      <c r="J132" s="2">
+        <v>1959</v>
+      </c>
+      <c r="K132" s="2">
+        <v>1699.500000000007</v>
+      </c>
+      <c r="L132" s="2">
+        <v>6</v>
+      </c>
+      <c r="M132" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="N132" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>134</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C133" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D133" s="2">
+        <v>5822</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1</v>
+      </c>
+      <c r="F133" s="2">
+        <v>0</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>3</v>
+      </c>
+      <c r="I133" s="2">
+        <v>2</v>
+      </c>
+      <c r="J133" s="2">
+        <v>1004</v>
+      </c>
+      <c r="K133" s="2">
+        <v>485.19999999999868</v>
+      </c>
+      <c r="L133" s="2">
+        <v>0</v>
+      </c>
+      <c r="M133" s="2">
+        <v>0</v>
+      </c>
+      <c r="N133" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>135</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D134" s="2">
+        <v>5870</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
+      <c r="H134" s="2">
+        <v>43</v>
+      </c>
+      <c r="I134" s="2">
+        <v>42</v>
+      </c>
+      <c r="J134" s="2">
+        <v>1199</v>
+      </c>
+      <c r="K134" s="2">
+        <v>1183.0999999999999</v>
+      </c>
+      <c r="L134" s="2">
+        <v>24</v>
+      </c>
+      <c r="M134" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="N134" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>136</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D135" s="2">
+        <v>6940</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2">
+        <v>0</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>15</v>
+      </c>
+      <c r="I135" s="2">
+        <v>14</v>
+      </c>
+      <c r="J135" s="2">
+        <v>1106</v>
+      </c>
+      <c r="K135" s="2">
+        <v>1256.0999999999999</v>
+      </c>
+      <c r="L135" s="2">
+        <v>8</v>
+      </c>
+      <c r="M135" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="N135" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>137</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D136" s="2">
+        <v>7472</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F136" s="2">
+        <v>0</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2">
+        <v>20</v>
+      </c>
+      <c r="I136" s="2">
+        <v>19</v>
+      </c>
+      <c r="J136" s="2">
+        <v>1147</v>
+      </c>
+      <c r="K136" s="2">
+        <v>680.09999999999923</v>
+      </c>
+      <c r="L136" s="2">
+        <v>6</v>
+      </c>
+      <c r="M136" s="2">
+        <v>2</v>
+      </c>
+      <c r="N136" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>138</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D137" s="2">
+        <v>6481</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
+      <c r="F137" s="2">
+        <v>0</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2">
+        <v>13</v>
+      </c>
+      <c r="I137" s="2">
+        <v>12</v>
+      </c>
+      <c r="J137" s="2">
+        <v>1217</v>
+      </c>
+      <c r="K137" s="2">
+        <v>1201.4000000000001</v>
+      </c>
+      <c r="L137" s="2">
+        <v>8</v>
+      </c>
+      <c r="M137" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="N137" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>139</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D138" s="2">
+        <v>6771</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
+      <c r="F138" s="2">
+        <v>0</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0</v>
+      </c>
+      <c r="H138" s="2">
+        <v>19</v>
+      </c>
+      <c r="I138" s="2">
+        <v>18</v>
+      </c>
+      <c r="J138" s="2">
+        <v>1527</v>
+      </c>
+      <c r="K138" s="2">
+        <v>1178.100000000004</v>
+      </c>
+      <c r="L138" s="2">
+        <v>15</v>
+      </c>
+      <c r="M138" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="N138" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>140</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D139" s="2">
+        <v>4634</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0</v>
+      </c>
+      <c r="H139" s="2">
+        <v>4</v>
+      </c>
+      <c r="I139" s="2">
+        <v>3</v>
+      </c>
+      <c r="J139" s="2">
+        <v>979</v>
+      </c>
+      <c r="K139" s="2">
+        <v>670.34</v>
+      </c>
+      <c r="L139" s="2">
+        <v>2</v>
+      </c>
+      <c r="M139" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="N139" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>141</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C140" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D140" s="2">
+        <v>5531</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0</v>
+      </c>
+      <c r="F140" s="2">
+        <v>1</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+      <c r="H140" s="2">
+        <v>39</v>
+      </c>
+      <c r="I140" s="2">
+        <v>38</v>
+      </c>
+      <c r="J140" s="2">
+        <v>814</v>
+      </c>
+      <c r="K140" s="2">
+        <v>941.39999999999918</v>
+      </c>
+      <c r="L140" s="2">
+        <v>26</v>
+      </c>
+      <c r="M140" s="2">
+        <v>18</v>
+      </c>
+      <c r="N140" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>142</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D141" s="2">
+        <v>9441</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1</v>
+      </c>
+      <c r="F141" s="2">
+        <v>0</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+      <c r="H141" s="2">
+        <v>2</v>
+      </c>
+      <c r="I141" s="2">
+        <v>1</v>
+      </c>
+      <c r="J141" s="2">
+        <v>1225</v>
+      </c>
+      <c r="K141" s="2">
+        <v>683.29999999999779</v>
+      </c>
+      <c r="L141" s="2">
+        <v>0</v>
+      </c>
+      <c r="M141" s="2">
+        <v>0</v>
+      </c>
+      <c r="N141" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>143</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D142" s="2">
+        <v>3722</v>
+      </c>
+      <c r="E142" s="2">
+        <v>0</v>
+      </c>
+      <c r="F142" s="2">
+        <v>1</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+      <c r="H142" s="2">
+        <v>10</v>
+      </c>
+      <c r="I142" s="2">
+        <v>9</v>
+      </c>
+      <c r="J142" s="2">
+        <v>574</v>
+      </c>
+      <c r="K142" s="2">
+        <v>407.09999999999923</v>
+      </c>
+      <c r="L142" s="2">
+        <v>1</v>
+      </c>
+      <c r="M142" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N142" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>144</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D143" s="2">
+        <v>7121</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2">
+        <v>7</v>
+      </c>
+      <c r="I143" s="2">
+        <v>6</v>
+      </c>
+      <c r="J143" s="2">
+        <v>1295</v>
+      </c>
+      <c r="K143" s="2">
+        <v>758.19999999999663</v>
+      </c>
+      <c r="L143" s="2">
+        <v>2</v>
+      </c>
+      <c r="M143" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="N143" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>145</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D144" s="2">
+        <v>5656</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" s="2">
+        <v>0</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+      <c r="H144" s="2">
+        <v>12</v>
+      </c>
+      <c r="I144" s="2">
+        <v>11</v>
+      </c>
+      <c r="J144" s="2">
+        <v>1034</v>
+      </c>
+      <c r="K144" s="2">
+        <v>1103.699999999998</v>
+      </c>
+      <c r="L144" s="2">
+        <v>6</v>
+      </c>
+      <c r="M144" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="N144" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>146</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D145" s="2">
+        <v>2162</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1</v>
+      </c>
+      <c r="F145" s="2">
+        <v>0</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2">
+        <v>15</v>
+      </c>
+      <c r="I145" s="2">
+        <v>14</v>
+      </c>
+      <c r="J145" s="2">
+        <v>664</v>
+      </c>
+      <c r="K145" s="2">
+        <v>955.99999999999966</v>
+      </c>
+      <c r="L145" s="2">
+        <v>8</v>
+      </c>
+      <c r="M145" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="N145" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>147</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D146" s="2">
+        <v>10415</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+      <c r="F146" s="2">
+        <v>0</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0</v>
+      </c>
+      <c r="H146" s="2">
+        <v>8</v>
+      </c>
+      <c r="I146" s="2">
+        <v>7</v>
+      </c>
+      <c r="J146" s="2">
+        <v>1376</v>
+      </c>
+      <c r="K146" s="2">
+        <v>1005.800000000003</v>
+      </c>
+      <c r="L146" s="2">
+        <v>5</v>
+      </c>
+      <c r="M146" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="N146" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>148</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D147" s="2">
+        <v>5813</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1</v>
+      </c>
+      <c r="F147" s="2">
+        <v>0</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0</v>
+      </c>
+      <c r="H147" s="2">
+        <v>7</v>
+      </c>
+      <c r="I147" s="2">
+        <v>6</v>
+      </c>
+      <c r="J147" s="2">
+        <v>975</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1323.200000000005</v>
+      </c>
+      <c r="L147" s="2">
+        <v>2</v>
+      </c>
+      <c r="M147" s="2">
+        <v>1</v>
+      </c>
+      <c r="N147" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>149</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C148" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D148" s="2">
+        <v>6245</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1</v>
+      </c>
+      <c r="F148" s="2">
+        <v>0</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0</v>
+      </c>
+      <c r="H148" s="2">
+        <v>41</v>
+      </c>
+      <c r="I148" s="2">
+        <v>40</v>
+      </c>
+      <c r="J148" s="2">
+        <v>1096</v>
+      </c>
+      <c r="K148" s="2">
+        <v>1045.799999999997</v>
+      </c>
+      <c r="L148" s="2">
+        <v>40</v>
+      </c>
+      <c r="M148" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="N148" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>150</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C149" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D149" s="2">
+        <v>6092</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1</v>
+      </c>
+      <c r="F149" s="2">
+        <v>0</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0</v>
+      </c>
+      <c r="H149" s="2">
+        <v>9</v>
+      </c>
+      <c r="I149" s="2">
+        <v>8</v>
+      </c>
+      <c r="J149" s="2">
+        <v>929</v>
+      </c>
+      <c r="K149" s="2">
+        <v>883.79999999999984</v>
+      </c>
+      <c r="L149" s="2">
+        <v>6</v>
+      </c>
+      <c r="M149" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="N149" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>151</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D150" s="2">
+        <v>6122</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0</v>
+      </c>
+      <c r="H150" s="2">
+        <v>9</v>
+      </c>
+      <c r="I150" s="2">
+        <v>8</v>
+      </c>
+      <c r="J150" s="2">
+        <v>912</v>
+      </c>
+      <c r="K150" s="2">
+        <v>788.89999999999884</v>
+      </c>
+      <c r="L150" s="2">
+        <v>3</v>
+      </c>
+      <c r="M150" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="N150" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>152</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D151" s="2">
+        <v>7465</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1</v>
+      </c>
+      <c r="F151" s="2">
+        <v>0</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0</v>
+      </c>
+      <c r="H151" s="2">
+        <v>1</v>
+      </c>
+      <c r="I151" s="2">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2">
+        <v>1027</v>
+      </c>
+      <c r="K151" s="2">
+        <v>713.49999999999841</v>
+      </c>
+      <c r="L151" s="2">
+        <v>0</v>
+      </c>
+      <c r="M151" s="2">
+        <v>0</v>
+      </c>
+      <c r="N151" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>153</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D152" s="2">
+        <v>6796</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1</v>
+      </c>
+      <c r="F152" s="2">
+        <v>0</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0</v>
+      </c>
+      <c r="H152" s="2">
+        <v>10</v>
+      </c>
+      <c r="I152" s="2">
+        <v>9</v>
+      </c>
+      <c r="J152" s="2">
+        <v>1274</v>
+      </c>
+      <c r="K152" s="2">
+        <v>1286.800000000002</v>
+      </c>
+      <c r="L152" s="2">
+        <v>7</v>
+      </c>
+      <c r="M152" s="2">
+        <v>3.7999999999999989</v>
+      </c>
+      <c r="N152" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>154</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D153" s="2">
+        <v>5678</v>
+      </c>
+      <c r="E153" s="2">
+        <v>0</v>
+      </c>
+      <c r="F153" s="2">
+        <v>1</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0</v>
+      </c>
+      <c r="H153" s="2">
+        <v>4</v>
+      </c>
+      <c r="I153" s="2">
+        <v>3</v>
+      </c>
+      <c r="J153" s="2">
+        <v>1355</v>
+      </c>
+      <c r="K153" s="2">
+        <v>855.10000000000059</v>
+      </c>
+      <c r="L153" s="2">
+        <v>3</v>
+      </c>
+      <c r="M153" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="N153" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>155</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C154" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D154" s="2">
+        <v>6950</v>
+      </c>
+      <c r="E154" s="2">
+        <v>1</v>
+      </c>
+      <c r="F154" s="2">
+        <v>0</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0</v>
+      </c>
+      <c r="H154" s="2">
+        <v>5</v>
+      </c>
+      <c r="I154" s="2">
+        <v>4</v>
+      </c>
+      <c r="J154" s="2">
+        <v>1449</v>
+      </c>
+      <c r="K154" s="2">
+        <v>1063.699999999998</v>
+      </c>
+      <c r="L154" s="2">
+        <v>1</v>
+      </c>
+      <c r="M154" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N154" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>156</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D155" s="2">
+        <v>6850</v>
+      </c>
+      <c r="E155" s="2">
+        <v>1</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="2">
+        <v>1</v>
+      </c>
+      <c r="I155" s="2">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2">
+        <v>904</v>
+      </c>
+      <c r="K155" s="2">
+        <v>698.0000000000008</v>
+      </c>
+      <c r="L155" s="2">
+        <v>0</v>
+      </c>
+      <c r="M155" s="2">
+        <v>0</v>
+      </c>
+      <c r="N155" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>157</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D156" s="2">
+        <v>3226</v>
+      </c>
+      <c r="E156" s="2">
+        <v>1</v>
+      </c>
+      <c r="F156" s="2">
+        <v>0</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0</v>
+      </c>
+      <c r="H156" s="2">
+        <v>21</v>
+      </c>
+      <c r="I156" s="2">
+        <v>20</v>
+      </c>
+      <c r="J156" s="2">
+        <v>770</v>
+      </c>
+      <c r="K156" s="2">
+        <v>1417.8000000000011</v>
+      </c>
+      <c r="L156" s="2">
+        <v>14</v>
+      </c>
+      <c r="M156" s="2">
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="N156" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>158</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C157" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D157" s="2">
+        <v>4457</v>
+      </c>
+      <c r="E157" s="2">
+        <v>0</v>
+      </c>
+      <c r="F157" s="2">
+        <v>1</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2">
+        <v>5</v>
+      </c>
+      <c r="I157" s="2">
+        <v>4</v>
+      </c>
+      <c r="J157" s="2">
+        <v>756</v>
+      </c>
+      <c r="K157" s="2">
+        <v>1169.8000000000011</v>
+      </c>
+      <c r="L157" s="2">
+        <v>3</v>
+      </c>
+      <c r="M157" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="N157" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>159</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D158" s="2">
+        <v>4835</v>
+      </c>
+      <c r="E158" s="2">
+        <v>0</v>
+      </c>
+      <c r="F158" s="2">
+        <v>1</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0</v>
+      </c>
+      <c r="H158" s="2">
+        <v>28</v>
+      </c>
+      <c r="I158" s="2">
+        <v>27</v>
+      </c>
+      <c r="J158" s="2">
+        <v>817</v>
+      </c>
+      <c r="K158" s="2">
+        <v>1358.100000000002</v>
+      </c>
+      <c r="L158" s="2">
+        <v>17</v>
+      </c>
+      <c r="M158" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="N158" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>160</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C159" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ps</v>
+      </c>
+      <c r="D159" s="2">
+        <v>5978</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1</v>
+      </c>
+      <c r="F159" s="2">
+        <v>0</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+      <c r="H159" s="2">
+        <v>1</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2">
+        <v>1196</v>
+      </c>
+      <c r="K159" s="2">
+        <v>974.59999999999832</v>
+      </c>
+      <c r="L159" s="2">
+        <v>0</v>
+      </c>
+      <c r="M159" s="2">
+        <v>0</v>
+      </c>
+      <c r="N159" s="2">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79409EA8-8B33-944B-9C95-5616A7FD929B}">
+  <dimension ref="A1:N161"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>LEFT(B2, 2)</f>
+        <v>ah</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10566</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1796</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1104.0999999999949</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C66" si="0">LEFT(B3, 2)</f>
+        <v>ah</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6909</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1049</v>
+      </c>
+      <c r="K3" s="2">
+        <v>734.69999999999777</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6451</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1269</v>
+      </c>
+      <c r="K4" s="2">
+        <v>681.99999999999659</v>
+      </c>
+      <c r="L4" s="2">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6641</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1648</v>
+      </c>
+      <c r="K5" s="2">
+        <v>987.49999999999932</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="N5" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6787</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1629</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1159.199999999998</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6430</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1600</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1208.600000000001</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7736</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1141</v>
+      </c>
+      <c r="K8" s="2">
+        <v>669.39999999999679</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="N8" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6459</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1004</v>
+      </c>
+      <c r="K9" s="2">
+        <v>723.59999999999957</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11225</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1158</v>
+      </c>
+      <c r="K10" s="2">
+        <v>624.59999999999866</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7140</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1571</v>
+      </c>
+      <c r="K11" s="2">
+        <v>937.19999999999845</v>
+      </c>
+      <c r="L11" s="2">
+        <v>7</v>
+      </c>
+      <c r="M11" s="2">
+        <v>322.8</v>
+      </c>
+      <c r="N11" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8303</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1256</v>
+      </c>
+      <c r="K12" s="2">
+        <v>618.29999999999768</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8191</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1178</v>
+      </c>
+      <c r="K13" s="2">
+        <v>535.09999999999809</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7815</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1430</v>
+      </c>
+      <c r="K14" s="2">
+        <v>874.19999999999789</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8415</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>11</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1368</v>
+      </c>
+      <c r="K15" s="2">
+        <v>843.09999999999764</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="N15" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9607</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1284</v>
+      </c>
+      <c r="K16" s="2">
+        <v>509.30000000000013</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N16" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8383</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1356</v>
+      </c>
+      <c r="K17" s="2">
+        <v>530.59999999999741</v>
+      </c>
+      <c r="L17" s="2">
+        <v>7</v>
+      </c>
+      <c r="M17" s="2">
+        <v>569.69999999999993</v>
+      </c>
+      <c r="N17" s="2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7324</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1271</v>
+      </c>
+      <c r="K18" s="2">
+        <v>881.60000000000548</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6448</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1348</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1199.700000000003</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="N19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7196</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>28</v>
+      </c>
+      <c r="I20" s="2">
+        <v>27</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1593</v>
+      </c>
+      <c r="K20" s="2">
+        <v>863.89999999999361</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8994</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1223</v>
+      </c>
+      <c r="K21" s="2">
+        <v>497.19999999999828</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9715</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2">
+        <v>12</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1069</v>
+      </c>
+      <c r="K22" s="2">
+        <v>459.29999999999899</v>
+      </c>
+      <c r="L22" s="2">
+        <v>4</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N22" s="2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7318</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1084</v>
+      </c>
+      <c r="K23" s="2">
+        <v>833.89999999999748</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6919</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1086</v>
+      </c>
+      <c r="K24" s="2">
+        <v>772.59999999999877</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D25" s="2">
+        <v>8376</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1531</v>
+      </c>
+      <c r="K25" s="2">
+        <v>699.99999999999466</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9928</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1262</v>
+      </c>
+      <c r="K26" s="2">
+        <v>527.39999999999839</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7515</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1094</v>
+      </c>
+      <c r="K27" s="2">
+        <v>533.49999999999852</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D28" s="2">
+        <v>7357</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1097</v>
+      </c>
+      <c r="K28" s="2">
+        <v>666.09999999999832</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9280</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1076</v>
+      </c>
+      <c r="K29" s="2">
+        <v>483.09999999999928</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8835</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1143</v>
+      </c>
+      <c r="K30" s="2">
+        <v>500.09999999999991</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D31" s="2">
+        <v>9386</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>11</v>
+      </c>
+      <c r="I31" s="2">
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1085</v>
+      </c>
+      <c r="K31" s="2">
+        <v>442.49999999999852</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N31" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7729</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4</v>
+      </c>
+      <c r="I32" s="2">
+        <v>3</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1142</v>
+      </c>
+      <c r="K32" s="2">
+        <v>522.79999999999905</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D33" s="2">
+        <v>5769</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>3</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1103</v>
+      </c>
+      <c r="K33" s="2">
+        <v>882.60000000000093</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5848</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>40</v>
+      </c>
+      <c r="I34" s="2">
+        <v>39</v>
+      </c>
+      <c r="J34" s="2">
+        <v>910</v>
+      </c>
+      <c r="K34" s="2">
+        <v>812.59999999999923</v>
+      </c>
+      <c r="L34" s="2">
+        <v>13</v>
+      </c>
+      <c r="M34" s="2">
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="N34" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D35" s="2">
+        <v>9079</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>44</v>
+      </c>
+      <c r="I35" s="2">
+        <v>43</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1421</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1102.5000000000009</v>
+      </c>
+      <c r="L35" s="2">
+        <v>15</v>
+      </c>
+      <c r="M35" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="N35" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D36" s="2">
+        <v>6382</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>7</v>
+      </c>
+      <c r="I36" s="2">
+        <v>6</v>
+      </c>
+      <c r="J36" s="2">
+        <v>977</v>
+      </c>
+      <c r="K36" s="2">
+        <v>719.49999999999943</v>
+      </c>
+      <c r="L36" s="2">
+        <v>2</v>
+      </c>
+      <c r="M36" s="2">
+        <v>58.2</v>
+      </c>
+      <c r="N36" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D37" s="2">
+        <v>7678</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>35</v>
+      </c>
+      <c r="I37" s="2">
+        <v>34</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1004</v>
+      </c>
+      <c r="K37" s="2">
+        <v>921.60000000000059</v>
+      </c>
+      <c r="L37" s="2">
+        <v>20</v>
+      </c>
+      <c r="M37" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="N37" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D38" s="2">
+        <v>8875</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>61</v>
+      </c>
+      <c r="I38" s="2">
+        <v>60</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1268</v>
+      </c>
+      <c r="K38" s="2">
+        <v>694.99999999999807</v>
+      </c>
+      <c r="L38" s="2">
+        <v>35</v>
+      </c>
+      <c r="M38" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N38" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D39" s="2">
+        <v>7600</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1413</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1045.899999999999</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D40" s="2">
+        <v>8414</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1433</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1052.8</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ah</v>
+      </c>
+      <c r="D41" s="2">
+        <v>5679</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>4</v>
+      </c>
+      <c r="I41" s="2">
+        <v>3</v>
+      </c>
+      <c r="J41" s="2">
+        <v>928</v>
+      </c>
+      <c r="K41" s="2">
+        <v>827.69999999999766</v>
+      </c>
+      <c r="L41" s="2">
+        <v>2</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="N41" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D42" s="2">
+        <v>9302</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>30</v>
+      </c>
+      <c r="I42" s="2">
+        <v>29</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1441</v>
+      </c>
+      <c r="K42" s="2">
+        <v>963.79999999999802</v>
+      </c>
+      <c r="L42" s="2">
+        <v>12</v>
+      </c>
+      <c r="M42" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="N42" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D43" s="2">
+        <v>7533</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>67</v>
+      </c>
+      <c r="I43" s="2">
+        <v>66</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1907</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1952.000000000003</v>
+      </c>
+      <c r="L43" s="2">
+        <v>33</v>
+      </c>
+      <c r="M43" s="2">
+        <v>27.000000000000011</v>
+      </c>
+      <c r="N43" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D44" s="2">
+        <v>8480</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>6</v>
+      </c>
+      <c r="I44" s="2">
+        <v>5</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1616</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1143.5000000000009</v>
+      </c>
+      <c r="L44" s="2">
+        <v>5</v>
+      </c>
+      <c r="M44" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="N44" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D45" s="2">
+        <v>10634</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>23</v>
+      </c>
+      <c r="I45" s="2">
+        <v>22</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1429</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1212.700000000003</v>
+      </c>
+      <c r="L45" s="2">
+        <v>13</v>
+      </c>
+      <c r="M45" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="N45" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D46" s="2">
+        <v>7333</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>13</v>
+      </c>
+      <c r="I46" s="2">
+        <v>12</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1192</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1243.7999999999979</v>
+      </c>
+      <c r="L46" s="2">
+        <v>6</v>
+      </c>
+      <c r="M46" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="N46" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D47" s="2">
+        <v>5950</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>3</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1125</v>
+      </c>
+      <c r="K47" s="2">
+        <v>980.49999999999773</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D48" s="2">
+        <v>7459</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1334</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1127.399999999999</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5940</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>4</v>
+      </c>
+      <c r="I49" s="2">
+        <v>3</v>
+      </c>
+      <c r="J49" s="2">
+        <v>942</v>
+      </c>
+      <c r="K49" s="2">
+        <v>974.69999999999879</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D50" s="2">
+        <v>8173</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>14</v>
+      </c>
+      <c r="I50" s="2">
+        <v>13</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1328</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1183.0999999999999</v>
+      </c>
+      <c r="L50" s="2">
+        <v>3</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="N50" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4915</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>9</v>
+      </c>
+      <c r="I51" s="2">
+        <v>8</v>
+      </c>
+      <c r="J51" s="2">
+        <v>747</v>
+      </c>
+      <c r="K51" s="2">
+        <v>334.80000000000018</v>
+      </c>
+      <c r="L51" s="2">
+        <v>2</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N51" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D52" s="2">
+        <v>15331</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>5</v>
+      </c>
+      <c r="I52" s="2">
+        <v>4</v>
+      </c>
+      <c r="J52" s="2">
+        <v>2650</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1585.700000000001</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N52" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3032</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>7</v>
+      </c>
+      <c r="I53" s="2">
+        <v>6</v>
+      </c>
+      <c r="J53" s="2">
+        <v>376</v>
+      </c>
+      <c r="K53" s="2">
+        <v>317.69999999999987</v>
+      </c>
+      <c r="L53" s="2">
+        <v>5</v>
+      </c>
+      <c r="M53" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="N53" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3538</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>2</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>490</v>
+      </c>
+      <c r="K54" s="2">
+        <v>359.19999999999948</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D55" s="2">
+        <v>5184</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>7</v>
+      </c>
+      <c r="I55" s="2">
+        <v>6</v>
+      </c>
+      <c r="J55" s="2">
+        <v>674</v>
+      </c>
+      <c r="K55" s="2">
+        <v>519.89999999999952</v>
+      </c>
+      <c r="L55" s="2">
+        <v>3</v>
+      </c>
+      <c r="M55" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N55" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5543</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>774</v>
+      </c>
+      <c r="K56" s="2">
+        <v>679.69999999999982</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3760</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>5</v>
+      </c>
+      <c r="I57" s="2">
+        <v>4</v>
+      </c>
+      <c r="J57" s="2">
+        <v>441</v>
+      </c>
+      <c r="K57" s="2">
+        <v>442.4999999999996</v>
+      </c>
+      <c r="L57" s="2">
+        <v>4</v>
+      </c>
+      <c r="M57" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="N57" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5928</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>6</v>
+      </c>
+      <c r="I58" s="2">
+        <v>5</v>
+      </c>
+      <c r="J58" s="2">
+        <v>937</v>
+      </c>
+      <c r="K58" s="2">
+        <v>856.79999999999859</v>
+      </c>
+      <c r="L58" s="2">
+        <v>4</v>
+      </c>
+      <c r="M58" s="2">
+        <v>5</v>
+      </c>
+      <c r="N58" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D59" s="2">
+        <v>6539</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>4</v>
+      </c>
+      <c r="I59" s="2">
+        <v>3</v>
+      </c>
+      <c r="J59" s="2">
+        <v>950</v>
+      </c>
+      <c r="K59" s="2">
+        <v>962.099999999999</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N59" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D60" s="2">
+        <v>10505</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>50</v>
+      </c>
+      <c r="I60" s="2">
+        <v>49</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1290</v>
+      </c>
+      <c r="K60" s="2">
+        <v>684.09999999999627</v>
+      </c>
+      <c r="L60" s="2">
+        <v>8</v>
+      </c>
+      <c r="M60" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="N60" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4290</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>21</v>
+      </c>
+      <c r="I61" s="2">
+        <v>20</v>
+      </c>
+      <c r="J61" s="2">
+        <v>349</v>
+      </c>
+      <c r="K61" s="2">
+        <v>197.10000000000039</v>
+      </c>
+      <c r="L61" s="2">
+        <v>12</v>
+      </c>
+      <c r="M61" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="N61" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5210</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>35</v>
+      </c>
+      <c r="I62" s="2">
+        <v>34</v>
+      </c>
+      <c r="J62" s="2">
+        <v>602</v>
+      </c>
+      <c r="K62" s="2">
+        <v>353.99999999999892</v>
+      </c>
+      <c r="L62" s="2">
+        <v>16</v>
+      </c>
+      <c r="M62" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="N62" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3799</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>11</v>
+      </c>
+      <c r="I63" s="2">
+        <v>10</v>
+      </c>
+      <c r="J63" s="2">
+        <v>575</v>
+      </c>
+      <c r="K63" s="2">
+        <v>405.49999999999937</v>
+      </c>
+      <c r="L63" s="2">
+        <v>6</v>
+      </c>
+      <c r="M63" s="2">
+        <v>4</v>
+      </c>
+      <c r="N63" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2350</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>29</v>
+      </c>
+      <c r="I64" s="2">
+        <v>28</v>
+      </c>
+      <c r="J64" s="2">
+        <v>215</v>
+      </c>
+      <c r="K64" s="2">
+        <v>120.10000000000009</v>
+      </c>
+      <c r="L64" s="2">
+        <v>9</v>
+      </c>
+      <c r="M64" s="2">
+        <v>5.4999999999999991</v>
+      </c>
+      <c r="N64" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2207</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>34</v>
+      </c>
+      <c r="I65" s="2">
+        <v>33</v>
+      </c>
+      <c r="J65" s="2">
+        <v>193</v>
+      </c>
+      <c r="K65" s="2">
+        <v>93.900000000000134</v>
+      </c>
+      <c r="L65" s="2">
+        <v>9</v>
+      </c>
+      <c r="M65" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="N65" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ls</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4154</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>38</v>
+      </c>
+      <c r="I66" s="2">
+        <v>37</v>
+      </c>
+      <c r="J66" s="2">
+        <v>505</v>
+      </c>
+      <c r="K66" s="2">
+        <v>317.99999999999977</v>
+      </c>
+      <c r="L66" s="2">
+        <v>17</v>
+      </c>
+      <c r="M66" s="2">
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="N66" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="2" t="str">
         <f t="shared" ref="C67:C130" si="1">LEFT(B67, 2)</f>
         <v>ls</v>
       </c>
